--- a/NformTester/NformTester/Keywordscripts/600.10.20.50_EditDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.50_EditDevice.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7541" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7541" uniqueCount="882">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3874,10 +3874,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"Liebert MPX/MPH"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert EM PDU"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3951,6 +3947,18 @@
   </si>
   <si>
     <t>;Edit device type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetTextValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert MPX/MPH - RPC1000"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4903,9 +4911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4974,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4993,7 +4999,7 @@
         <v>754</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -5166,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5454,7 +5460,7 @@
         <v>816</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -5595,10 +5601,10 @@
         <v>817</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>516</v>
+        <v>880</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>13</v>
+        <v>879</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>822</v>
@@ -5628,7 +5634,7 @@
         <v>818</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -6191,7 +6197,7 @@
         <v>840</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>841</v>
@@ -6222,7 +6228,7 @@
         <v>840</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>842</v>
@@ -6253,7 +6259,7 @@
         <v>840</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>843</v>
@@ -6284,7 +6290,7 @@
         <v>840</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J49" s="14" t="s">
         <v>844</v>
@@ -6315,10 +6321,10 @@
         <v>840</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -6346,7 +6352,7 @@
         <v>840</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J51" s="18" t="s">
         <v>845</v>
@@ -6377,7 +6383,7 @@
         <v>846</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J52" s="14" t="b">
         <v>1</v>
@@ -6408,7 +6414,7 @@
         <v>840</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J53" s="14">
         <v>2000</v>
@@ -6439,7 +6445,7 @@
         <v>840</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J54" s="14">
         <v>4</v>
@@ -6470,7 +6476,7 @@
         <v>846</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J55" s="14" t="b">
         <v>1</v>
@@ -6501,7 +6507,7 @@
         <v>846</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J56" s="14" t="b">
         <v>1</v>
@@ -6557,7 +6563,7 @@
         <v>846</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J58" s="14" t="b">
         <v>1</v>
@@ -6588,7 +6594,7 @@
         <v>840</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J59" s="14">
         <v>65535</v>
@@ -6619,7 +6625,7 @@
         <v>846</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J60" s="14" t="b">
         <v>1</v>
@@ -6650,7 +6656,7 @@
         <v>846</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J61" s="14" t="b">
         <v>1</v>
@@ -6681,7 +6687,7 @@
         <v>840</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>847</v>
@@ -6712,7 +6718,7 @@
         <v>846</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J63" s="14" t="b">
         <v>1</v>
@@ -6743,7 +6749,7 @@
         <v>840</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J64" s="14" t="s">
         <v>847</v>
@@ -6807,7 +6813,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -7141,7 +7147,7 @@
         <v>840</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>855</v>
@@ -7172,7 +7178,7 @@
         <v>840</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J81" s="18" t="s">
         <v>856</v>
@@ -7238,7 +7244,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -7375,7 +7381,7 @@
         <v>13</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -7402,7 +7408,7 @@
         <v>13</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -7429,7 +7435,7 @@
         <v>13</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -7456,7 +7462,7 @@
         <v>13</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7483,7 +7489,7 @@
         <v>13</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7510,7 +7516,7 @@
         <v>13</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -7537,7 +7543,7 @@
         <v>13</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7564,7 +7570,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7690,10 +7696,10 @@
         <v>840</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -7764,7 +7770,7 @@
         <v>811</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>2</v>
@@ -7786,10 +7792,10 @@
         <v>810</v>
       </c>
       <c r="E105" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="F105" s="14" t="s">
         <v>870</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>871</v>
       </c>
       <c r="G105" s="14" t="s">
         <v>825</v>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.50_EditDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.50_EditDevice.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -4911,14 +4911,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="16.875" customWidth="1"/>
@@ -5454,10 +5456,10 @@
         <v>811</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>815</v>
+        <v>573</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>816</v>
+        <v>56</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>873</v>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.50_EditDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.50_EditDevice.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7541" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7543" uniqueCount="884">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3926,10 +3926,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_device_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3960,13 +3956,24 @@
   <si>
     <t>"Liebert MPX/MPH - RPC1000"</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_license</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4039,6 +4046,13 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4120,7 +4134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4131,8 +4145,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4178,10 +4195,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4911,14 +4933,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
@@ -4982,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5001,7 +5023,7 @@
         <v>754</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -5174,7 +5196,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5462,7 +5484,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -5566,6 +5588,12 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>883</v>
+      </c>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5603,10 +5631,10 @@
         <v>817</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>822</v>
@@ -5636,7 +5664,7 @@
         <v>818</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -6326,7 +6354,7 @@
         <v>871</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -6815,7 +6843,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -7246,7 +7274,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -7383,7 +7411,7 @@
         <v>13</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
